--- a/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">Exclude SKUs</t>
   </si>
   <si>
+    <t xml:space="preserve">Include Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include SubCategory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
@@ -65,7 +71,7 @@
     <t xml:space="preserve">Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Exclude</t>
+    <t xml:space="preserve">Oral ,Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -226,7 +232,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -312,28 +318,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="1013" min="11" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -365,7 +372,12 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="ALZ1" s="0"/>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
@@ -378,27 +390,30 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="0"/>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
@@ -411,41 +426,43 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -62,22 +62,55 @@
     <t xml:space="preserve">Include SubCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Facings SOS</t>
+    <t xml:space="preserve">Include POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
   </si>
   <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral ,Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
+    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shumitect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_ECAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Cap</t>
   </si>
 </sst>
 </file>
@@ -87,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -125,14 +158,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +170,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -194,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,10 +249,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,8 +260,20 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -269,7 +310,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -318,30 +359,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -378,7 +419,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="ALZ1" s="0"/>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
@@ -390,31 +433,34 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="ALZ2" s="0"/>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -426,42 +472,151 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -361,26 +361,26 @@
   </sheetPr>
   <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -556,13 +556,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>21</v>

--- a/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include </t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
@@ -366,21 +363,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -472,7 +469,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -481,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -496,31 +493,31 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
@@ -539,18 +536,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -568,47 +565,47 @@
         <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>

--- a/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,6 +154,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,12 +267,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -345,7 +359,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -363,21 +377,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -430,7 +444,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -457,7 +471,9 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -469,7 +485,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -480,9 +496,9 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
@@ -490,6 +506,9 @@
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -502,9 +521,9 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
@@ -514,8 +533,11 @@
       <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -544,8 +566,11 @@
       <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -573,8 +598,11 @@
       <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -584,9 +612,9 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
@@ -596,8 +624,11 @@
       <c r="K7" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -607,15 +638,18 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">End Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,12 +157,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -230,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,20 +264,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -370,30 +359,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="9:9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -471,7 +460,7 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AMA2" s="0"/>
@@ -496,9 +485,9 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
@@ -506,7 +495,7 @@
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -521,9 +510,9 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
@@ -533,7 +522,7 @@
       <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -566,7 +555,7 @@
       <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -598,7 +587,7 @@
       <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -612,9 +601,9 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
@@ -624,7 +613,7 @@
       <c r="K7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -638,9 +627,9 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>16</v>
@@ -648,14 +637,19 @@
       <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>14</v>
+      <c r="L8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
